--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H2">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I2">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J2">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.2873121431529</v>
+        <v>47.253984</v>
       </c>
       <c r="N2">
-        <v>46.2873121431529</v>
+        <v>141.761952</v>
       </c>
       <c r="O2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q2">
-        <v>809.4981879849267</v>
+        <v>840.113995806272</v>
       </c>
       <c r="R2">
-        <v>809.4981879849267</v>
+        <v>7561.025962256448</v>
       </c>
       <c r="S2">
-        <v>0.7038395342136996</v>
+        <v>0.6711834306818241</v>
       </c>
       <c r="T2">
-        <v>0.7038395342136996</v>
+        <v>0.671183430681824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H3">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I3">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J3">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.82043266310992</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N3">
-        <v>3.82043266310992</v>
+        <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q3">
-        <v>66.81384541278423</v>
+        <v>71.51509405231643</v>
       </c>
       <c r="R3">
-        <v>66.81384541278423</v>
+        <v>643.6358464708479</v>
       </c>
       <c r="S3">
-        <v>0.05809305880155452</v>
+        <v>0.05713480124265859</v>
       </c>
       <c r="T3">
-        <v>0.05809305880155452</v>
+        <v>0.05713480124265857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H4">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I4">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J4">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.729705316449215</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N4">
-        <v>0.729705316449215</v>
+        <v>2.367962</v>
       </c>
       <c r="O4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q4">
-        <v>12.76149130460984</v>
+        <v>14.03308849568756</v>
       </c>
       <c r="R4">
-        <v>12.76149130460984</v>
+        <v>126.297796461188</v>
       </c>
       <c r="S4">
-        <v>0.01109581494934244</v>
+        <v>0.01121130766373895</v>
       </c>
       <c r="T4">
-        <v>0.01109581494934244</v>
+        <v>0.01121130766373895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H5">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I5">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J5">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.311993888392052</v>
+        <v>0.803095</v>
       </c>
       <c r="N5">
-        <v>0.311993888392052</v>
+        <v>2.409285</v>
       </c>
       <c r="O5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q5">
-        <v>5.456322167393285</v>
+        <v>14.27797811634333</v>
       </c>
       <c r="R5">
-        <v>5.456322167393285</v>
+        <v>128.50180304709</v>
       </c>
       <c r="S5">
-        <v>0.004744143112139349</v>
+        <v>0.01140695475038506</v>
       </c>
       <c r="T5">
-        <v>0.004744143112139349</v>
+        <v>0.01140695475038505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7623937719335649</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H6">
-        <v>0.7623937719335649</v>
+        <v>53.336074</v>
       </c>
       <c r="I6">
-        <v>0.03390611521721032</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J6">
-        <v>0.03390611521721032</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.2873121431529</v>
+        <v>0.320979</v>
       </c>
       <c r="N6">
-        <v>46.2873121431529</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q6">
-        <v>35.28915849748464</v>
+        <v>5.706586565481999</v>
       </c>
       <c r="R6">
-        <v>35.28915849748464</v>
+        <v>51.359279089338</v>
       </c>
       <c r="S6">
-        <v>0.0306830889164702</v>
+        <v>0.004559103130792552</v>
       </c>
       <c r="T6">
-        <v>0.0306830889164702</v>
+        <v>0.004559103130792551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H7">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I7">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J7">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82043266310992</v>
+        <v>47.253984</v>
       </c>
       <c r="N7">
-        <v>3.82043266310992</v>
+        <v>141.761952</v>
       </c>
       <c r="O7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q7">
-        <v>2.912674068446567</v>
+        <v>38.907103271552</v>
       </c>
       <c r="R7">
-        <v>2.912674068446567</v>
+        <v>350.163929443968</v>
       </c>
       <c r="S7">
-        <v>0.002532501233578951</v>
+        <v>0.03108364243667959</v>
       </c>
       <c r="T7">
-        <v>0.002532501233578951</v>
+        <v>0.03108364243667958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H8">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I8">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J8">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.729705316449215</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N8">
-        <v>0.729705316449215</v>
+        <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q8">
-        <v>0.5563227886076927</v>
+        <v>3.311985234929777</v>
       </c>
       <c r="R8">
-        <v>0.5563227886076927</v>
+        <v>29.807867114368</v>
       </c>
       <c r="S8">
-        <v>0.000483709510679468</v>
+        <v>0.002646009498049502</v>
       </c>
       <c r="T8">
-        <v>0.000483709510679468</v>
+        <v>0.002646009498049501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H9">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I9">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J9">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.311993888392052</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N9">
-        <v>0.311993888392052</v>
+        <v>2.367962</v>
       </c>
       <c r="O9">
-        <v>0.006099653562692117</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P9">
-        <v>0.006099653562692117</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q9">
-        <v>0.2378621973914362</v>
+        <v>0.6498961165342223</v>
       </c>
       <c r="R9">
-        <v>0.2378621973914362</v>
+        <v>5.849065048808001</v>
       </c>
       <c r="S9">
-        <v>0.0002068155564817063</v>
+        <v>0.0005192146628429939</v>
       </c>
       <c r="T9">
-        <v>0.0002068155564817063</v>
+        <v>0.0005192146628429936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.23448723098897</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H10">
-        <v>4.23448723098897</v>
+        <v>2.470084</v>
       </c>
       <c r="I10">
-        <v>0.1883213337060537</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J10">
-        <v>0.1883213337060537</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>46.2873121431529</v>
+        <v>0.803095</v>
       </c>
       <c r="N10">
-        <v>46.2873121431529</v>
+        <v>2.409285</v>
       </c>
       <c r="O10">
-        <v>0.9049426252434795</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P10">
-        <v>0.9049426252434795</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q10">
-        <v>196.0030322269816</v>
+        <v>0.6612373699933333</v>
       </c>
       <c r="R10">
-        <v>196.0030322269816</v>
+        <v>5.95113632994</v>
       </c>
       <c r="S10">
-        <v>0.1704200021133096</v>
+        <v>0.0005282754110782531</v>
       </c>
       <c r="T10">
-        <v>0.1704200021133096</v>
+        <v>0.000528275411078253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.23448723098897</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H11">
-        <v>4.23448723098897</v>
+        <v>2.470084</v>
       </c>
       <c r="I11">
-        <v>0.1883213337060537</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J11">
-        <v>0.1883213337060537</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.82043266310992</v>
+        <v>0.320979</v>
       </c>
       <c r="N11">
-        <v>3.82043266310992</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O11">
-        <v>0.07469157753270081</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P11">
-        <v>0.07469157753270081</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q11">
-        <v>16.17757332879214</v>
+        <v>0.264281697412</v>
       </c>
       <c r="R11">
-        <v>16.17757332879214</v>
+        <v>2.378535276708</v>
       </c>
       <c r="S11">
-        <v>0.01406601749756733</v>
+        <v>0.0002111397943860771</v>
       </c>
       <c r="T11">
-        <v>0.01406601749756733</v>
+        <v>0.000211139794386077</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H12">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I12">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J12">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.729705316449215</v>
+        <v>47.253984</v>
       </c>
       <c r="N12">
-        <v>0.729705316449215</v>
+        <v>141.761952</v>
       </c>
       <c r="O12">
-        <v>0.01426614366112763</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P12">
-        <v>0.01426614366112763</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q12">
-        <v>3.089927844888966</v>
+        <v>0.371132790336</v>
       </c>
       <c r="R12">
-        <v>3.089927844888966</v>
+        <v>3.340195113024</v>
       </c>
       <c r="S12">
-        <v>0.002686619201105719</v>
+        <v>0.000296505213220702</v>
       </c>
       <c r="T12">
-        <v>0.002686619201105719</v>
+        <v>0.0002965052132207019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007854</v>
+      </c>
+      <c r="H13">
+        <v>0.023562</v>
+      </c>
+      <c r="I13">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J13">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.022517333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.067552</v>
+      </c>
+      <c r="O13">
+        <v>0.07562559124637756</v>
+      </c>
+      <c r="P13">
+        <v>0.07562559124637755</v>
+      </c>
+      <c r="Q13">
+        <v>0.03159285113599999</v>
+      </c>
+      <c r="R13">
+        <v>0.284335660224</v>
+      </c>
+      <c r="S13">
+        <v>2.524014397609246E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.524014397609245E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007854</v>
+      </c>
+      <c r="H14">
+        <v>0.023562</v>
+      </c>
+      <c r="I14">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J14">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7893206666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.367962</v>
+      </c>
+      <c r="O14">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="P14">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="Q14">
+        <v>0.006199324516000001</v>
+      </c>
+      <c r="R14">
+        <v>0.05579392064400001</v>
+      </c>
+      <c r="S14">
+        <v>4.952761074484359E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.952761074484357E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007854</v>
+      </c>
+      <c r="H15">
+        <v>0.023562</v>
+      </c>
+      <c r="I15">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J15">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.803095</v>
+      </c>
+      <c r="N15">
+        <v>2.409285</v>
+      </c>
+      <c r="O15">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="P15">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="Q15">
+        <v>0.00630750813</v>
+      </c>
+      <c r="R15">
+        <v>0.05676757317</v>
+      </c>
+      <c r="S15">
+        <v>5.039191070354611E-06</v>
+      </c>
+      <c r="T15">
+        <v>5.039191070354609E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007854</v>
+      </c>
+      <c r="H16">
+        <v>0.023562</v>
+      </c>
+      <c r="I16">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J16">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.320979</v>
+      </c>
+      <c r="N16">
+        <v>0.9629369999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.006034585967229564</v>
+      </c>
+      <c r="P16">
+        <v>0.006034585967229563</v>
+      </c>
+      <c r="Q16">
+        <v>0.002520969066</v>
+      </c>
+      <c r="R16">
+        <v>0.022688721594</v>
+      </c>
+      <c r="S16">
+        <v>2.014051277335001E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.014051277335E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H17">
+        <v>14.767745</v>
+      </c>
+      <c r="I17">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J17">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>47.253984</v>
+      </c>
+      <c r="N17">
+        <v>141.761952</v>
+      </c>
+      <c r="O17">
+        <v>0.8884015114449556</v>
+      </c>
+      <c r="P17">
+        <v>0.8884015114449555</v>
+      </c>
+      <c r="Q17">
+        <v>232.61159531536</v>
+      </c>
+      <c r="R17">
+        <v>2093.50435783824</v>
+      </c>
+      <c r="S17">
+        <v>0.1858379331132313</v>
+      </c>
+      <c r="T17">
+        <v>0.1858379331132312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H18">
+        <v>14.767745</v>
+      </c>
+      <c r="I18">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J18">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.022517333333333</v>
+      </c>
+      <c r="N18">
+        <v>12.067552</v>
+      </c>
+      <c r="O18">
+        <v>0.07562559124637756</v>
+      </c>
+      <c r="P18">
+        <v>0.07562559124637755</v>
+      </c>
+      <c r="Q18">
+        <v>19.80117007891555</v>
+      </c>
+      <c r="R18">
+        <v>178.21053071024</v>
+      </c>
+      <c r="S18">
+        <v>0.01581954036169339</v>
+      </c>
+      <c r="T18">
+        <v>0.01581954036169338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H19">
+        <v>14.767745</v>
+      </c>
+      <c r="I19">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J19">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7893206666666668</v>
+      </c>
+      <c r="N19">
+        <v>2.367962</v>
+      </c>
+      <c r="O19">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="P19">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="Q19">
+        <v>3.885495442854445</v>
+      </c>
+      <c r="R19">
+        <v>34.96945898569</v>
+      </c>
+      <c r="S19">
+        <v>0.003104197971051312</v>
+      </c>
+      <c r="T19">
+        <v>0.003104197971051311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.23448723098897</v>
-      </c>
-      <c r="H13">
-        <v>4.23448723098897</v>
-      </c>
-      <c r="I13">
-        <v>0.1883213337060537</v>
-      </c>
-      <c r="J13">
-        <v>0.1883213337060537</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.311993888392052</v>
-      </c>
-      <c r="N13">
-        <v>0.311993888392052</v>
-      </c>
-      <c r="O13">
-        <v>0.006099653562692117</v>
-      </c>
-      <c r="P13">
-        <v>0.006099653562692117</v>
-      </c>
-      <c r="Q13">
-        <v>1.321134136542742</v>
-      </c>
-      <c r="R13">
-        <v>1.321134136542742</v>
-      </c>
-      <c r="S13">
-        <v>0.001148694894071062</v>
-      </c>
-      <c r="T13">
-        <v>0.001148694894071062</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H20">
+        <v>14.767745</v>
+      </c>
+      <c r="I20">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J20">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.803095</v>
+      </c>
+      <c r="N20">
+        <v>2.409285</v>
+      </c>
+      <c r="O20">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="P20">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="Q20">
+        <v>3.953300723591667</v>
+      </c>
+      <c r="R20">
+        <v>35.579706512325</v>
+      </c>
+      <c r="S20">
+        <v>0.003158368930195822</v>
+      </c>
+      <c r="T20">
+        <v>0.003158368930195821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H21">
+        <v>14.767745</v>
+      </c>
+      <c r="I21">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J21">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.320979</v>
+      </c>
+      <c r="N21">
+        <v>0.9629369999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.006034585967229564</v>
+      </c>
+      <c r="P21">
+        <v>0.006034585967229563</v>
+      </c>
+      <c r="Q21">
+        <v>1.580045340785</v>
+      </c>
+      <c r="R21">
+        <v>14.220408067065</v>
+      </c>
+      <c r="S21">
+        <v>0.0012623289907736</v>
+      </c>
+      <c r="T21">
+        <v>0.0012623289907736</v>
       </c>
     </row>
   </sheetData>
